--- a/Data_Sources_and_Preparation/Economic_Uncertainty/EPU_GBR.xlsx
+++ b/Data_Sources_and_Preparation/Economic_Uncertainty/EPU_GBR.xlsx
@@ -16,10 +16,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
-    <t>Date</t>
+    <t>EPU_GBR</t>
   </si>
   <si>
-    <t>EPU_GBR</t>
+    <t>Date</t>
   </si>
   <si>
     <t>EPU_GBR-1</t>
@@ -423,10 +423,10 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
+        <v>56.76796722412109</v>
+      </c>
+      <c r="B2">
         <v>200201</v>
-      </c>
-      <c r="B2">
-        <v>56.76796722412109</v>
       </c>
       <c r="C2">
         <v>76.56446075439453</v>
@@ -446,10 +446,10 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
+        <v>67.61251831054688</v>
+      </c>
+      <c r="B3">
         <v>200202</v>
-      </c>
-      <c r="B3">
-        <v>67.61251831054688</v>
       </c>
       <c r="C3">
         <v>56.76796722412109</v>
@@ -469,10 +469,10 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
+        <v>60.03963470458984</v>
+      </c>
+      <c r="B4">
         <v>200203</v>
-      </c>
-      <c r="B4">
-        <v>60.03963470458984</v>
       </c>
       <c r="C4">
         <v>67.61251831054688</v>
@@ -492,10 +492,10 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
+        <v>67.45938110351562</v>
+      </c>
+      <c r="B5">
         <v>200204</v>
-      </c>
-      <c r="B5">
-        <v>67.45938110351562</v>
       </c>
       <c r="C5">
         <v>60.03963470458984</v>
@@ -515,10 +515,10 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
+        <v>57.54758071899414</v>
+      </c>
+      <c r="B6">
         <v>200205</v>
-      </c>
-      <c r="B6">
-        <v>57.54758071899414</v>
       </c>
       <c r="C6">
         <v>67.45938110351562</v>
@@ -538,10 +538,10 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
+        <v>84.52009582519531</v>
+      </c>
+      <c r="B7">
         <v>200206</v>
-      </c>
-      <c r="B7">
-        <v>84.52009582519531</v>
       </c>
       <c r="C7">
         <v>57.54758071899414</v>
@@ -561,10 +561,10 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
+        <v>77.99050903320312</v>
+      </c>
+      <c r="B8">
         <v>200207</v>
-      </c>
-      <c r="B8">
-        <v>77.99050903320312</v>
       </c>
       <c r="C8">
         <v>84.52009582519531</v>
@@ -584,10 +584,10 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
+        <v>81.16082763671875</v>
+      </c>
+      <c r="B9">
         <v>200208</v>
-      </c>
-      <c r="B9">
-        <v>81.16082763671875</v>
       </c>
       <c r="C9">
         <v>77.99050903320312</v>
@@ -607,10 +607,10 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
+        <v>114.3385162353516</v>
+      </c>
+      <c r="B10">
         <v>200209</v>
-      </c>
-      <c r="B10">
-        <v>114.3385162353516</v>
       </c>
       <c r="C10">
         <v>81.16082763671875</v>
@@ -630,10 +630,10 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
+        <v>114.0102157592773</v>
+      </c>
+      <c r="B11">
         <v>200210</v>
-      </c>
-      <c r="B11">
-        <v>114.0102157592773</v>
       </c>
       <c r="C11">
         <v>114.3385162353516</v>
@@ -653,10 +653,10 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
+        <v>167.0678100585938</v>
+      </c>
+      <c r="B12">
         <v>200211</v>
-      </c>
-      <c r="B12">
-        <v>167.0678100585938</v>
       </c>
       <c r="C12">
         <v>114.0102157592773</v>
@@ -676,10 +676,10 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
+        <v>166.5131378173828</v>
+      </c>
+      <c r="B13">
         <v>200212</v>
-      </c>
-      <c r="B13">
-        <v>166.5131378173828</v>
       </c>
       <c r="C13">
         <v>167.0678100585938</v>
@@ -699,10 +699,10 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
+        <v>194.3283233642578</v>
+      </c>
+      <c r="B14">
         <v>200301</v>
-      </c>
-      <c r="B14">
-        <v>194.3283233642578</v>
       </c>
       <c r="C14">
         <v>166.5131378173828</v>
@@ -722,10 +722,10 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
+        <v>220.1610870361328</v>
+      </c>
+      <c r="B15">
         <v>200302</v>
-      </c>
-      <c r="B15">
-        <v>220.1610870361328</v>
       </c>
       <c r="C15">
         <v>194.3283233642578</v>
@@ -745,10 +745,10 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16">
+        <v>273.1854248046875</v>
+      </c>
+      <c r="B16">
         <v>200303</v>
-      </c>
-      <c r="B16">
-        <v>273.1854248046875</v>
       </c>
       <c r="C16">
         <v>220.1610870361328</v>
@@ -768,10 +768,10 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17">
+        <v>226.8206634521484</v>
+      </c>
+      <c r="B17">
         <v>200304</v>
-      </c>
-      <c r="B17">
-        <v>226.8206634521484</v>
       </c>
       <c r="C17">
         <v>273.1854248046875</v>
@@ -791,10 +791,10 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18">
+        <v>124.1357192993164</v>
+      </c>
+      <c r="B18">
         <v>200305</v>
-      </c>
-      <c r="B18">
-        <v>124.1357192993164</v>
       </c>
       <c r="C18">
         <v>226.8206634521484</v>
@@ -814,10 +814,10 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19">
+        <v>125.2898254394531</v>
+      </c>
+      <c r="B19">
         <v>200306</v>
-      </c>
-      <c r="B19">
-        <v>125.2898254394531</v>
       </c>
       <c r="C19">
         <v>124.1357192993164</v>
@@ -837,10 +837,10 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20">
+        <v>73.56979370117188</v>
+      </c>
+      <c r="B20">
         <v>200307</v>
-      </c>
-      <c r="B20">
-        <v>73.56979370117188</v>
       </c>
       <c r="C20">
         <v>125.2898254394531</v>
@@ -860,10 +860,10 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21">
+        <v>90.74357604980469</v>
+      </c>
+      <c r="B21">
         <v>200308</v>
-      </c>
-      <c r="B21">
-        <v>90.74357604980469</v>
       </c>
       <c r="C21">
         <v>73.56979370117188</v>
@@ -883,10 +883,10 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22">
+        <v>58.72573089599609</v>
+      </c>
+      <c r="B22">
         <v>200309</v>
-      </c>
-      <c r="B22">
-        <v>58.72573089599609</v>
       </c>
       <c r="C22">
         <v>90.74357604980469</v>
@@ -906,10 +906,10 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23">
+        <v>73.45626068115234</v>
+      </c>
+      <c r="B23">
         <v>200310</v>
-      </c>
-      <c r="B23">
-        <v>73.45626068115234</v>
       </c>
       <c r="C23">
         <v>58.72573089599609</v>
@@ -929,10 +929,10 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24">
+        <v>75.54927062988281</v>
+      </c>
+      <c r="B24">
         <v>200311</v>
-      </c>
-      <c r="B24">
-        <v>75.54927062988281</v>
       </c>
       <c r="C24">
         <v>73.45626068115234</v>
@@ -952,10 +952,10 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25">
+        <v>80.86125946044922</v>
+      </c>
+      <c r="B25">
         <v>200312</v>
-      </c>
-      <c r="B25">
-        <v>80.86125946044922</v>
       </c>
       <c r="C25">
         <v>75.54927062988281</v>
@@ -975,10 +975,10 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26">
+        <v>65.19388580322266</v>
+      </c>
+      <c r="B26">
         <v>200401</v>
-      </c>
-      <c r="B26">
-        <v>65.19388580322266</v>
       </c>
       <c r="C26">
         <v>80.86125946044922</v>
@@ -998,10 +998,10 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27">
+        <v>68.73472595214844</v>
+      </c>
+      <c r="B27">
         <v>200402</v>
-      </c>
-      <c r="B27">
-        <v>68.73472595214844</v>
       </c>
       <c r="C27">
         <v>65.19388580322266</v>
@@ -1021,10 +1021,10 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28">
+        <v>77.10776519775391</v>
+      </c>
+      <c r="B28">
         <v>200403</v>
-      </c>
-      <c r="B28">
-        <v>77.10776519775391</v>
       </c>
       <c r="C28">
         <v>68.73472595214844</v>
@@ -1044,10 +1044,10 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29">
+        <v>78.17436218261719</v>
+      </c>
+      <c r="B29">
         <v>200404</v>
-      </c>
-      <c r="B29">
-        <v>78.17436218261719</v>
       </c>
       <c r="C29">
         <v>77.10776519775391</v>
@@ -1067,10 +1067,10 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30">
+        <v>87.14657592773438</v>
+      </c>
+      <c r="B30">
         <v>200405</v>
-      </c>
-      <c r="B30">
-        <v>87.14657592773438</v>
       </c>
       <c r="C30">
         <v>78.17436218261719</v>
@@ -1090,10 +1090,10 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31">
+        <v>69.1171875</v>
+      </c>
+      <c r="B31">
         <v>200406</v>
-      </c>
-      <c r="B31">
-        <v>69.1171875</v>
       </c>
       <c r="C31">
         <v>87.14657592773438</v>
@@ -1113,10 +1113,10 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32">
+        <v>80.45660400390625</v>
+      </c>
+      <c r="B32">
         <v>200407</v>
-      </c>
-      <c r="B32">
-        <v>80.45660400390625</v>
       </c>
       <c r="C32">
         <v>69.1171875</v>
@@ -1136,10 +1136,10 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33">
+        <v>80.71109008789062</v>
+      </c>
+      <c r="B33">
         <v>200408</v>
-      </c>
-      <c r="B33">
-        <v>80.71109008789062</v>
       </c>
       <c r="C33">
         <v>80.45660400390625</v>
@@ -1159,10 +1159,10 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34">
+        <v>78.461181640625</v>
+      </c>
+      <c r="B34">
         <v>200409</v>
-      </c>
-      <c r="B34">
-        <v>78.461181640625</v>
       </c>
       <c r="C34">
         <v>80.71109008789062</v>
@@ -1182,10 +1182,10 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35">
+        <v>94.68280792236328</v>
+      </c>
+      <c r="B35">
         <v>200410</v>
-      </c>
-      <c r="B35">
-        <v>94.68280792236328</v>
       </c>
       <c r="C35">
         <v>78.461181640625</v>
@@ -1205,10 +1205,10 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36">
+        <v>128.9797668457031</v>
+      </c>
+      <c r="B36">
         <v>200411</v>
-      </c>
-      <c r="B36">
-        <v>128.9797668457031</v>
       </c>
       <c r="C36">
         <v>94.68280792236328</v>
@@ -1228,10 +1228,10 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37">
+        <v>76.16023254394531</v>
+      </c>
+      <c r="B37">
         <v>200412</v>
-      </c>
-      <c r="B37">
-        <v>76.16023254394531</v>
       </c>
       <c r="C37">
         <v>128.9797668457031</v>
@@ -1251,10 +1251,10 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38">
+        <v>49.03665161132812</v>
+      </c>
+      <c r="B38">
         <v>200501</v>
-      </c>
-      <c r="B38">
-        <v>49.03665161132812</v>
       </c>
       <c r="C38">
         <v>76.16023254394531</v>
@@ -1274,10 +1274,10 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39">
+        <v>57.14406585693359</v>
+      </c>
+      <c r="B39">
         <v>200502</v>
-      </c>
-      <c r="B39">
-        <v>57.14406585693359</v>
       </c>
       <c r="C39">
         <v>49.03665161132812</v>
@@ -1297,10 +1297,10 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40">
+        <v>74.87570953369141</v>
+      </c>
+      <c r="B40">
         <v>200503</v>
-      </c>
-      <c r="B40">
-        <v>74.87570953369141</v>
       </c>
       <c r="C40">
         <v>57.14406585693359</v>
@@ -1320,10 +1320,10 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41">
+        <v>82.25067901611328</v>
+      </c>
+      <c r="B41">
         <v>200504</v>
-      </c>
-      <c r="B41">
-        <v>82.25067901611328</v>
       </c>
       <c r="C41">
         <v>74.87570953369141</v>
@@ -1343,10 +1343,10 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42">
+        <v>79.33299255371094</v>
+      </c>
+      <c r="B42">
         <v>200505</v>
-      </c>
-      <c r="B42">
-        <v>79.33299255371094</v>
       </c>
       <c r="C42">
         <v>82.25067901611328</v>
@@ -1366,10 +1366,10 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43">
+        <v>86.56475830078125</v>
+      </c>
+      <c r="B43">
         <v>200506</v>
-      </c>
-      <c r="B43">
-        <v>86.56475830078125</v>
       </c>
       <c r="C43">
         <v>79.33299255371094</v>
@@ -1389,10 +1389,10 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44">
+        <v>64.43831634521484</v>
+      </c>
+      <c r="B44">
         <v>200507</v>
-      </c>
-      <c r="B44">
-        <v>64.43831634521484</v>
       </c>
       <c r="C44">
         <v>86.56475830078125</v>
@@ -1412,10 +1412,10 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45">
+        <v>63.62026596069336</v>
+      </c>
+      <c r="B45">
         <v>200508</v>
-      </c>
-      <c r="B45">
-        <v>63.62026596069336</v>
       </c>
       <c r="C45">
         <v>64.43831634521484</v>
@@ -1435,10 +1435,10 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46">
+        <v>120.4776611328125</v>
+      </c>
+      <c r="B46">
         <v>200509</v>
-      </c>
-      <c r="B46">
-        <v>120.4776611328125</v>
       </c>
       <c r="C46">
         <v>63.62026596069336</v>
@@ -1458,10 +1458,10 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47">
+        <v>68.67493438720703</v>
+      </c>
+      <c r="B47">
         <v>200510</v>
-      </c>
-      <c r="B47">
-        <v>68.67493438720703</v>
       </c>
       <c r="C47">
         <v>120.4776611328125</v>
@@ -1481,10 +1481,10 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48">
+        <v>83.49024963378906</v>
+      </c>
+      <c r="B48">
         <v>200511</v>
-      </c>
-      <c r="B48">
-        <v>83.49024963378906</v>
       </c>
       <c r="C48">
         <v>68.67493438720703</v>
@@ -1504,10 +1504,10 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49">
+        <v>52.24917221069336</v>
+      </c>
+      <c r="B49">
         <v>200512</v>
-      </c>
-      <c r="B49">
-        <v>52.24917221069336</v>
       </c>
       <c r="C49">
         <v>83.49024963378906</v>
@@ -1527,10 +1527,10 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50">
+        <v>41.81970596313477</v>
+      </c>
+      <c r="B50">
         <v>200601</v>
-      </c>
-      <c r="B50">
-        <v>41.81970596313477</v>
       </c>
       <c r="C50">
         <v>52.24917221069336</v>
@@ -1550,10 +1550,10 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51">
+        <v>68.73345184326172</v>
+      </c>
+      <c r="B51">
         <v>200602</v>
-      </c>
-      <c r="B51">
-        <v>68.73345184326172</v>
       </c>
       <c r="C51">
         <v>41.81970596313477</v>
@@ -1573,10 +1573,10 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52">
+        <v>50.96133804321289</v>
+      </c>
+      <c r="B52">
         <v>200603</v>
-      </c>
-      <c r="B52">
-        <v>50.96133804321289</v>
       </c>
       <c r="C52">
         <v>68.73345184326172</v>
@@ -1596,10 +1596,10 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53">
+        <v>56.40462493896484</v>
+      </c>
+      <c r="B53">
         <v>200604</v>
-      </c>
-      <c r="B53">
-        <v>56.40462493896484</v>
       </c>
       <c r="C53">
         <v>50.96133804321289</v>
@@ -1619,10 +1619,10 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54">
+        <v>98.10707092285156</v>
+      </c>
+      <c r="B54">
         <v>200605</v>
-      </c>
-      <c r="B54">
-        <v>98.10707092285156</v>
       </c>
       <c r="C54">
         <v>56.40462493896484</v>
@@ -1642,10 +1642,10 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55">
+        <v>94.18513488769531</v>
+      </c>
+      <c r="B55">
         <v>200606</v>
-      </c>
-      <c r="B55">
-        <v>94.18513488769531</v>
       </c>
       <c r="C55">
         <v>98.10707092285156</v>
@@ -1665,10 +1665,10 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56">
+        <v>69.13067626953125</v>
+      </c>
+      <c r="B56">
         <v>200607</v>
-      </c>
-      <c r="B56">
-        <v>69.13067626953125</v>
       </c>
       <c r="C56">
         <v>94.18513488769531</v>
@@ -1688,10 +1688,10 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57">
+        <v>75.90216064453125</v>
+      </c>
+      <c r="B57">
         <v>200608</v>
-      </c>
-      <c r="B57">
-        <v>75.90216064453125</v>
       </c>
       <c r="C57">
         <v>69.13067626953125</v>
@@ -1711,10 +1711,10 @@
     </row>
     <row r="58" spans="1:7">
       <c r="A58">
+        <v>94.98159027099609</v>
+      </c>
+      <c r="B58">
         <v>200609</v>
-      </c>
-      <c r="B58">
-        <v>94.98159027099609</v>
       </c>
       <c r="C58">
         <v>75.90216064453125</v>
@@ -1734,10 +1734,10 @@
     </row>
     <row r="59" spans="1:7">
       <c r="A59">
+        <v>68.01689147949219</v>
+      </c>
+      <c r="B59">
         <v>200610</v>
-      </c>
-      <c r="B59">
-        <v>68.01689147949219</v>
       </c>
       <c r="C59">
         <v>94.98159027099609</v>
@@ -1757,10 +1757,10 @@
     </row>
     <row r="60" spans="1:7">
       <c r="A60">
+        <v>91.79184722900391</v>
+      </c>
+      <c r="B60">
         <v>200611</v>
-      </c>
-      <c r="B60">
-        <v>91.79184722900391</v>
       </c>
       <c r="C60">
         <v>68.01689147949219</v>
@@ -1780,10 +1780,10 @@
     </row>
     <row r="61" spans="1:7">
       <c r="A61">
+        <v>80.55703735351562</v>
+      </c>
+      <c r="B61">
         <v>200612</v>
-      </c>
-      <c r="B61">
-        <v>80.55703735351562</v>
       </c>
       <c r="C61">
         <v>91.79184722900391</v>
@@ -1803,10 +1803,10 @@
     </row>
     <row r="62" spans="1:7">
       <c r="A62">
+        <v>68.25110626220703</v>
+      </c>
+      <c r="B62">
         <v>200701</v>
-      </c>
-      <c r="B62">
-        <v>68.25110626220703</v>
       </c>
       <c r="C62">
         <v>80.55703735351562</v>
@@ -1826,10 +1826,10 @@
     </row>
     <row r="63" spans="1:7">
       <c r="A63">
+        <v>50.54887771606445</v>
+      </c>
+      <c r="B63">
         <v>200702</v>
-      </c>
-      <c r="B63">
-        <v>50.54887771606445</v>
       </c>
       <c r="C63">
         <v>68.25110626220703</v>
@@ -1849,10 +1849,10 @@
     </row>
     <row r="64" spans="1:7">
       <c r="A64">
+        <v>39.88483810424805</v>
+      </c>
+      <c r="B64">
         <v>200703</v>
-      </c>
-      <c r="B64">
-        <v>39.88483810424805</v>
       </c>
       <c r="C64">
         <v>50.54887771606445</v>
@@ -1872,10 +1872,10 @@
     </row>
     <row r="65" spans="1:7">
       <c r="A65">
+        <v>56.02066802978516</v>
+      </c>
+      <c r="B65">
         <v>200704</v>
-      </c>
-      <c r="B65">
-        <v>56.02066802978516</v>
       </c>
       <c r="C65">
         <v>39.88483810424805</v>
@@ -1895,10 +1895,10 @@
     </row>
     <row r="66" spans="1:7">
       <c r="A66">
+        <v>52.00436782836914</v>
+      </c>
+      <c r="B66">
         <v>200705</v>
-      </c>
-      <c r="B66">
-        <v>52.00436782836914</v>
       </c>
       <c r="C66">
         <v>56.02066802978516</v>
@@ -1918,10 +1918,10 @@
     </row>
     <row r="67" spans="1:7">
       <c r="A67">
+        <v>47.32553100585938</v>
+      </c>
+      <c r="B67">
         <v>200706</v>
-      </c>
-      <c r="B67">
-        <v>47.32553100585938</v>
       </c>
       <c r="C67">
         <v>52.00436782836914</v>
@@ -1941,10 +1941,10 @@
     </row>
     <row r="68" spans="1:7">
       <c r="A68">
+        <v>30.46880149841309</v>
+      </c>
+      <c r="B68">
         <v>200707</v>
-      </c>
-      <c r="B68">
-        <v>30.46880149841309</v>
       </c>
       <c r="C68">
         <v>47.32553100585938</v>
@@ -1964,10 +1964,10 @@
     </row>
     <row r="69" spans="1:7">
       <c r="A69">
+        <v>60.00445175170898</v>
+      </c>
+      <c r="B69">
         <v>200708</v>
-      </c>
-      <c r="B69">
-        <v>60.00445175170898</v>
       </c>
       <c r="C69">
         <v>30.46880149841309</v>
@@ -1987,10 +1987,10 @@
     </row>
     <row r="70" spans="1:7">
       <c r="A70">
+        <v>128.6735382080078</v>
+      </c>
+      <c r="B70">
         <v>200709</v>
-      </c>
-      <c r="B70">
-        <v>128.6735382080078</v>
       </c>
       <c r="C70">
         <v>60.00445175170898</v>
@@ -2010,10 +2010,10 @@
     </row>
     <row r="71" spans="1:7">
       <c r="A71">
+        <v>82.11963653564453</v>
+      </c>
+      <c r="B71">
         <v>200710</v>
-      </c>
-      <c r="B71">
-        <v>82.11963653564453</v>
       </c>
       <c r="C71">
         <v>128.6735382080078</v>
@@ -2033,10 +2033,10 @@
     </row>
     <row r="72" spans="1:7">
       <c r="A72">
+        <v>134.3202667236328</v>
+      </c>
+      <c r="B72">
         <v>200711</v>
-      </c>
-      <c r="B72">
-        <v>134.3202667236328</v>
       </c>
       <c r="C72">
         <v>82.11963653564453</v>
@@ -2056,10 +2056,10 @@
     </row>
     <row r="73" spans="1:7">
       <c r="A73">
+        <v>91.7197265625</v>
+      </c>
+      <c r="B73">
         <v>200712</v>
-      </c>
-      <c r="B73">
-        <v>91.7197265625</v>
       </c>
       <c r="C73">
         <v>134.3202667236328</v>
@@ -2079,10 +2079,10 @@
     </row>
     <row r="74" spans="1:7">
       <c r="A74">
+        <v>139.5478973388672</v>
+      </c>
+      <c r="B74">
         <v>200801</v>
-      </c>
-      <c r="B74">
-        <v>139.5478973388672</v>
       </c>
       <c r="C74">
         <v>91.7197265625</v>
@@ -2102,10 +2102,10 @@
     </row>
     <row r="75" spans="1:7">
       <c r="A75">
+        <v>132.7440338134766</v>
+      </c>
+      <c r="B75">
         <v>200802</v>
-      </c>
-      <c r="B75">
-        <v>132.7440338134766</v>
       </c>
       <c r="C75">
         <v>139.5478973388672</v>
@@ -2125,10 +2125,10 @@
     </row>
     <row r="76" spans="1:7">
       <c r="A76">
+        <v>217.7699584960938</v>
+      </c>
+      <c r="B76">
         <v>200803</v>
-      </c>
-      <c r="B76">
-        <v>217.7699584960938</v>
       </c>
       <c r="C76">
         <v>132.7440338134766</v>
@@ -2148,10 +2148,10 @@
     </row>
     <row r="77" spans="1:7">
       <c r="A77">
+        <v>115.2067184448242</v>
+      </c>
+      <c r="B77">
         <v>200804</v>
-      </c>
-      <c r="B77">
-        <v>115.2067184448242</v>
       </c>
       <c r="C77">
         <v>217.7699584960938</v>
@@ -2171,10 +2171,10 @@
     </row>
     <row r="78" spans="1:7">
       <c r="A78">
+        <v>120.2624740600586</v>
+      </c>
+      <c r="B78">
         <v>200805</v>
-      </c>
-      <c r="B78">
-        <v>120.2624740600586</v>
       </c>
       <c r="C78">
         <v>115.2067184448242</v>
@@ -2194,10 +2194,10 @@
     </row>
     <row r="79" spans="1:7">
       <c r="A79">
+        <v>134.1222229003906</v>
+      </c>
+      <c r="B79">
         <v>200806</v>
-      </c>
-      <c r="B79">
-        <v>134.1222229003906</v>
       </c>
       <c r="C79">
         <v>120.2624740600586</v>
@@ -2217,10 +2217,10 @@
     </row>
     <row r="80" spans="1:7">
       <c r="A80">
+        <v>123.1239624023438</v>
+      </c>
+      <c r="B80">
         <v>200807</v>
-      </c>
-      <c r="B80">
-        <v>123.1239624023438</v>
       </c>
       <c r="C80">
         <v>134.1222229003906</v>
@@ -2240,10 +2240,10 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81">
+        <v>125.4557037353516</v>
+      </c>
+      <c r="B81">
         <v>200808</v>
-      </c>
-      <c r="B81">
-        <v>125.4557037353516</v>
       </c>
       <c r="C81">
         <v>123.1239624023438</v>
@@ -2263,10 +2263,10 @@
     </row>
     <row r="82" spans="1:7">
       <c r="A82">
+        <v>185.3356475830078</v>
+      </c>
+      <c r="B82">
         <v>200809</v>
-      </c>
-      <c r="B82">
-        <v>185.3356475830078</v>
       </c>
       <c r="C82">
         <v>125.4557037353516</v>
@@ -2286,10 +2286,10 @@
     </row>
     <row r="83" spans="1:7">
       <c r="A83">
+        <v>251.4863586425781</v>
+      </c>
+      <c r="B83">
         <v>200810</v>
-      </c>
-      <c r="B83">
-        <v>251.4863586425781</v>
       </c>
       <c r="C83">
         <v>185.3356475830078</v>
@@ -2309,10 +2309,10 @@
     </row>
     <row r="84" spans="1:7">
       <c r="A84">
+        <v>201.9815673828125</v>
+      </c>
+      <c r="B84">
         <v>200811</v>
-      </c>
-      <c r="B84">
-        <v>201.9815673828125</v>
       </c>
       <c r="C84">
         <v>251.4863586425781</v>
@@ -2332,10 +2332,10 @@
     </row>
     <row r="85" spans="1:7">
       <c r="A85">
+        <v>111.9768753051758</v>
+      </c>
+      <c r="B85">
         <v>200812</v>
-      </c>
-      <c r="B85">
-        <v>111.9768753051758</v>
       </c>
       <c r="C85">
         <v>201.9815673828125</v>
@@ -2355,10 +2355,10 @@
     </row>
     <row r="86" spans="1:7">
       <c r="A86">
+        <v>158.6422119140625</v>
+      </c>
+      <c r="B86">
         <v>200901</v>
-      </c>
-      <c r="B86">
-        <v>158.6422119140625</v>
       </c>
       <c r="C86">
         <v>111.9768753051758</v>
@@ -2378,10 +2378,10 @@
     </row>
     <row r="87" spans="1:7">
       <c r="A87">
+        <v>153.1646423339844</v>
+      </c>
+      <c r="B87">
         <v>200902</v>
-      </c>
-      <c r="B87">
-        <v>153.1646423339844</v>
       </c>
       <c r="C87">
         <v>158.6422119140625</v>
@@ -2401,10 +2401,10 @@
     </row>
     <row r="88" spans="1:7">
       <c r="A88">
+        <v>141.8159484863281</v>
+      </c>
+      <c r="B88">
         <v>200903</v>
-      </c>
-      <c r="B88">
-        <v>141.8159484863281</v>
       </c>
       <c r="C88">
         <v>153.1646423339844</v>
@@ -2424,10 +2424,10 @@
     </row>
     <row r="89" spans="1:7">
       <c r="A89">
+        <v>147.2951354980469</v>
+      </c>
+      <c r="B89">
         <v>200904</v>
-      </c>
-      <c r="B89">
-        <v>147.2951354980469</v>
       </c>
       <c r="C89">
         <v>141.8159484863281</v>
@@ -2447,10 +2447,10 @@
     </row>
     <row r="90" spans="1:7">
       <c r="A90">
+        <v>148.2398071289062</v>
+      </c>
+      <c r="B90">
         <v>200905</v>
-      </c>
-      <c r="B90">
-        <v>148.2398071289062</v>
       </c>
       <c r="C90">
         <v>147.2951354980469</v>
@@ -2470,10 +2470,10 @@
     </row>
     <row r="91" spans="1:7">
       <c r="A91">
+        <v>157.7288360595703</v>
+      </c>
+      <c r="B91">
         <v>200906</v>
-      </c>
-      <c r="B91">
-        <v>157.7288360595703</v>
       </c>
       <c r="C91">
         <v>148.2398071289062</v>
@@ -2493,10 +2493,10 @@
     </row>
     <row r="92" spans="1:7">
       <c r="A92">
+        <v>113.3862380981445</v>
+      </c>
+      <c r="B92">
         <v>200907</v>
-      </c>
-      <c r="B92">
-        <v>113.3862380981445</v>
       </c>
       <c r="C92">
         <v>157.7288360595703</v>
@@ -2516,10 +2516,10 @@
     </row>
     <row r="93" spans="1:7">
       <c r="A93">
+        <v>95.39430236816406</v>
+      </c>
+      <c r="B93">
         <v>200908</v>
-      </c>
-      <c r="B93">
-        <v>95.39430236816406</v>
       </c>
       <c r="C93">
         <v>113.3862380981445</v>
@@ -2539,10 +2539,10 @@
     </row>
     <row r="94" spans="1:7">
       <c r="A94">
+        <v>111.0358200073242</v>
+      </c>
+      <c r="B94">
         <v>200909</v>
-      </c>
-      <c r="B94">
-        <v>111.0358200073242</v>
       </c>
       <c r="C94">
         <v>95.39430236816406</v>
@@ -2562,10 +2562,10 @@
     </row>
     <row r="95" spans="1:7">
       <c r="A95">
+        <v>142.2283782958984</v>
+      </c>
+      <c r="B95">
         <v>200910</v>
-      </c>
-      <c r="B95">
-        <v>142.2283782958984</v>
       </c>
       <c r="C95">
         <v>111.0358200073242</v>
@@ -2585,10 +2585,10 @@
     </row>
     <row r="96" spans="1:7">
       <c r="A96">
+        <v>132.3121032714844</v>
+      </c>
+      <c r="B96">
         <v>200911</v>
-      </c>
-      <c r="B96">
-        <v>132.3121032714844</v>
       </c>
       <c r="C96">
         <v>142.2283782958984</v>
@@ -2608,10 +2608,10 @@
     </row>
     <row r="97" spans="1:7">
       <c r="A97">
+        <v>171.2540130615234</v>
+      </c>
+      <c r="B97">
         <v>200912</v>
-      </c>
-      <c r="B97">
-        <v>171.2540130615234</v>
       </c>
       <c r="C97">
         <v>132.3121032714844</v>
@@ -2631,10 +2631,10 @@
     </row>
     <row r="98" spans="1:7">
       <c r="A98">
+        <v>209.1473236083984</v>
+      </c>
+      <c r="B98">
         <v>201001</v>
-      </c>
-      <c r="B98">
-        <v>209.1473236083984</v>
       </c>
       <c r="C98">
         <v>171.2540130615234</v>
@@ -2654,10 +2654,10 @@
     </row>
     <row r="99" spans="1:7">
       <c r="A99">
+        <v>163.1825103759766</v>
+      </c>
+      <c r="B99">
         <v>201002</v>
-      </c>
-      <c r="B99">
-        <v>163.1825103759766</v>
       </c>
       <c r="C99">
         <v>209.1473236083984</v>
@@ -2677,10 +2677,10 @@
     </row>
     <row r="100" spans="1:7">
       <c r="A100">
+        <v>208.9407348632812</v>
+      </c>
+      <c r="B100">
         <v>201003</v>
-      </c>
-      <c r="B100">
-        <v>208.9407348632812</v>
       </c>
       <c r="C100">
         <v>163.1825103759766</v>
@@ -2700,10 +2700,10 @@
     </row>
     <row r="101" spans="1:7">
       <c r="A101">
+        <v>214.0236663818359</v>
+      </c>
+      <c r="B101">
         <v>201004</v>
-      </c>
-      <c r="B101">
-        <v>214.0236663818359</v>
       </c>
       <c r="C101">
         <v>208.9407348632812</v>
@@ -2723,10 +2723,10 @@
     </row>
     <row r="102" spans="1:7">
       <c r="A102">
+        <v>238.2655181884766</v>
+      </c>
+      <c r="B102">
         <v>201005</v>
-      </c>
-      <c r="B102">
-        <v>238.2655181884766</v>
       </c>
       <c r="C102">
         <v>214.0236663818359</v>
@@ -2746,10 +2746,10 @@
     </row>
     <row r="103" spans="1:7">
       <c r="A103">
+        <v>242.6568756103516</v>
+      </c>
+      <c r="B103">
         <v>201006</v>
-      </c>
-      <c r="B103">
-        <v>242.6568756103516</v>
       </c>
       <c r="C103">
         <v>238.2655181884766</v>
@@ -2769,10 +2769,10 @@
     </row>
     <row r="104" spans="1:7">
       <c r="A104">
+        <v>237.9694213867188</v>
+      </c>
+      <c r="B104">
         <v>201007</v>
-      </c>
-      <c r="B104">
-        <v>237.9694213867188</v>
       </c>
       <c r="C104">
         <v>242.6568756103516</v>
@@ -2792,10 +2792,10 @@
     </row>
     <row r="105" spans="1:7">
       <c r="A105">
+        <v>269.2442321777344</v>
+      </c>
+      <c r="B105">
         <v>201008</v>
-      </c>
-      <c r="B105">
-        <v>269.2442321777344</v>
       </c>
       <c r="C105">
         <v>237.9694213867188</v>
@@ -2815,10 +2815,10 @@
     </row>
     <row r="106" spans="1:7">
       <c r="A106">
+        <v>233.2443695068359</v>
+      </c>
+      <c r="B106">
         <v>201009</v>
-      </c>
-      <c r="B106">
-        <v>233.2443695068359</v>
       </c>
       <c r="C106">
         <v>269.2442321777344</v>
@@ -2838,10 +2838,10 @@
     </row>
     <row r="107" spans="1:7">
       <c r="A107">
+        <v>302.2837524414062</v>
+      </c>
+      <c r="B107">
         <v>201010</v>
-      </c>
-      <c r="B107">
-        <v>302.2837524414062</v>
       </c>
       <c r="C107">
         <v>233.2443695068359</v>
@@ -2861,10 +2861,10 @@
     </row>
     <row r="108" spans="1:7">
       <c r="A108">
+        <v>268.5077209472656</v>
+      </c>
+      <c r="B108">
         <v>201011</v>
-      </c>
-      <c r="B108">
-        <v>268.5077209472656</v>
       </c>
       <c r="C108">
         <v>302.2837524414062</v>
@@ -2884,10 +2884,10 @@
     </row>
     <row r="109" spans="1:7">
       <c r="A109">
+        <v>194.9812469482422</v>
+      </c>
+      <c r="B109">
         <v>201012</v>
-      </c>
-      <c r="B109">
-        <v>194.9812469482422</v>
       </c>
       <c r="C109">
         <v>268.5077209472656</v>
@@ -2907,10 +2907,10 @@
     </row>
     <row r="110" spans="1:7">
       <c r="A110">
+        <v>195.2267608642578</v>
+      </c>
+      <c r="B110">
         <v>201101</v>
-      </c>
-      <c r="B110">
-        <v>195.2267608642578</v>
       </c>
       <c r="C110">
         <v>194.9812469482422</v>
@@ -2930,10 +2930,10 @@
     </row>
     <row r="111" spans="1:7">
       <c r="A111">
+        <v>131.3256530761719</v>
+      </c>
+      <c r="B111">
         <v>201102</v>
-      </c>
-      <c r="B111">
-        <v>131.3256530761719</v>
       </c>
       <c r="C111">
         <v>195.2267608642578</v>
@@ -2953,10 +2953,10 @@
     </row>
     <row r="112" spans="1:7">
       <c r="A112">
+        <v>177.4130706787109</v>
+      </c>
+      <c r="B112">
         <v>201103</v>
-      </c>
-      <c r="B112">
-        <v>177.4130706787109</v>
       </c>
       <c r="C112">
         <v>131.3256530761719</v>
@@ -2976,10 +2976,10 @@
     </row>
     <row r="113" spans="1:7">
       <c r="A113">
+        <v>156.2340393066406</v>
+      </c>
+      <c r="B113">
         <v>201104</v>
-      </c>
-      <c r="B113">
-        <v>156.2340393066406</v>
       </c>
       <c r="C113">
         <v>177.4130706787109</v>
@@ -2999,10 +2999,10 @@
     </row>
     <row r="114" spans="1:7">
       <c r="A114">
+        <v>146.9433135986328</v>
+      </c>
+      <c r="B114">
         <v>201105</v>
-      </c>
-      <c r="B114">
-        <v>146.9433135986328</v>
       </c>
       <c r="C114">
         <v>156.2340393066406</v>
@@ -3022,10 +3022,10 @@
     </row>
     <row r="115" spans="1:7">
       <c r="A115">
+        <v>198.1065979003906</v>
+      </c>
+      <c r="B115">
         <v>201106</v>
-      </c>
-      <c r="B115">
-        <v>198.1065979003906</v>
       </c>
       <c r="C115">
         <v>146.9433135986328</v>
@@ -3045,10 +3045,10 @@
     </row>
     <row r="116" spans="1:7">
       <c r="A116">
+        <v>194.1976470947266</v>
+      </c>
+      <c r="B116">
         <v>201107</v>
-      </c>
-      <c r="B116">
-        <v>194.1976470947266</v>
       </c>
       <c r="C116">
         <v>198.1065979003906</v>
@@ -3068,10 +3068,10 @@
     </row>
     <row r="117" spans="1:7">
       <c r="A117">
+        <v>203.3124389648438</v>
+      </c>
+      <c r="B117">
         <v>201108</v>
-      </c>
-      <c r="B117">
-        <v>203.3124389648438</v>
       </c>
       <c r="C117">
         <v>194.1976470947266</v>
@@ -3091,10 +3091,10 @@
     </row>
     <row r="118" spans="1:7">
       <c r="A118">
+        <v>288.8650817871094</v>
+      </c>
+      <c r="B118">
         <v>201109</v>
-      </c>
-      <c r="B118">
-        <v>288.8650817871094</v>
       </c>
       <c r="C118">
         <v>203.3124389648438</v>
@@ -3114,10 +3114,10 @@
     </row>
     <row r="119" spans="1:7">
       <c r="A119">
+        <v>334.3316345214844</v>
+      </c>
+      <c r="B119">
         <v>201110</v>
-      </c>
-      <c r="B119">
-        <v>334.3316345214844</v>
       </c>
       <c r="C119">
         <v>288.8650817871094</v>
@@ -3137,10 +3137,10 @@
     </row>
     <row r="120" spans="1:7">
       <c r="A120">
+        <v>380.2680053710938</v>
+      </c>
+      <c r="B120">
         <v>201111</v>
-      </c>
-      <c r="B120">
-        <v>380.2680053710938</v>
       </c>
       <c r="C120">
         <v>334.3316345214844</v>
@@ -3160,10 +3160,10 @@
     </row>
     <row r="121" spans="1:7">
       <c r="A121">
+        <v>324.9390869140625</v>
+      </c>
+      <c r="B121">
         <v>201112</v>
-      </c>
-      <c r="B121">
-        <v>324.9390869140625</v>
       </c>
       <c r="C121">
         <v>380.2680053710938</v>
@@ -3183,10 +3183,10 @@
     </row>
     <row r="122" spans="1:7">
       <c r="A122">
+        <v>252.6007385253906</v>
+      </c>
+      <c r="B122">
         <v>201201</v>
-      </c>
-      <c r="B122">
-        <v>252.6007385253906</v>
       </c>
       <c r="C122">
         <v>324.9390869140625</v>
@@ -3206,10 +3206,10 @@
     </row>
     <row r="123" spans="1:7">
       <c r="A123">
+        <v>280.6376647949219</v>
+      </c>
+      <c r="B123">
         <v>201202</v>
-      </c>
-      <c r="B123">
-        <v>280.6376647949219</v>
       </c>
       <c r="C123">
         <v>252.6007385253906</v>
@@ -3229,10 +3229,10 @@
     </row>
     <row r="124" spans="1:7">
       <c r="A124">
+        <v>254.3473815917969</v>
+      </c>
+      <c r="B124">
         <v>201203</v>
-      </c>
-      <c r="B124">
-        <v>254.3473815917969</v>
       </c>
       <c r="C124">
         <v>280.6376647949219</v>
@@ -3252,10 +3252,10 @@
     </row>
     <row r="125" spans="1:7">
       <c r="A125">
+        <v>222.4167175292969</v>
+      </c>
+      <c r="B125">
         <v>201204</v>
-      </c>
-      <c r="B125">
-        <v>222.4167175292969</v>
       </c>
       <c r="C125">
         <v>254.3473815917969</v>
@@ -3275,10 +3275,10 @@
     </row>
     <row r="126" spans="1:7">
       <c r="A126">
+        <v>378.4496765136719</v>
+      </c>
+      <c r="B126">
         <v>201205</v>
-      </c>
-      <c r="B126">
-        <v>378.4496765136719</v>
       </c>
       <c r="C126">
         <v>222.4167175292969</v>
@@ -3298,10 +3298,10 @@
     </row>
     <row r="127" spans="1:7">
       <c r="A127">
+        <v>313.578857421875</v>
+      </c>
+      <c r="B127">
         <v>201206</v>
-      </c>
-      <c r="B127">
-        <v>313.578857421875</v>
       </c>
       <c r="C127">
         <v>378.4496765136719</v>
@@ -3321,10 +3321,10 @@
     </row>
     <row r="128" spans="1:7">
       <c r="A128">
+        <v>292.4076538085938</v>
+      </c>
+      <c r="B128">
         <v>201207</v>
-      </c>
-      <c r="B128">
-        <v>292.4076538085938</v>
       </c>
       <c r="C128">
         <v>313.578857421875</v>
@@ -3344,10 +3344,10 @@
     </row>
     <row r="129" spans="1:7">
       <c r="A129">
+        <v>218.6783142089844</v>
+      </c>
+      <c r="B129">
         <v>201208</v>
-      </c>
-      <c r="B129">
-        <v>218.6783142089844</v>
       </c>
       <c r="C129">
         <v>292.4076538085938</v>
@@ -3367,10 +3367,10 @@
     </row>
     <row r="130" spans="1:7">
       <c r="A130">
+        <v>309.8489685058594</v>
+      </c>
+      <c r="B130">
         <v>201209</v>
-      </c>
-      <c r="B130">
-        <v>309.8489685058594</v>
       </c>
       <c r="C130">
         <v>218.6783142089844</v>
@@ -3390,10 +3390,10 @@
     </row>
     <row r="131" spans="1:7">
       <c r="A131">
+        <v>374.76806640625</v>
+      </c>
+      <c r="B131">
         <v>201210</v>
-      </c>
-      <c r="B131">
-        <v>374.76806640625</v>
       </c>
       <c r="C131">
         <v>309.8489685058594</v>
@@ -3413,10 +3413,10 @@
     </row>
     <row r="132" spans="1:7">
       <c r="A132">
+        <v>408.4349975585938</v>
+      </c>
+      <c r="B132">
         <v>201211</v>
-      </c>
-      <c r="B132">
-        <v>408.4349975585938</v>
       </c>
       <c r="C132">
         <v>374.76806640625</v>
@@ -3436,10 +3436,10 @@
     </row>
     <row r="133" spans="1:7">
       <c r="A133">
+        <v>358.9934692382812</v>
+      </c>
+      <c r="B133">
         <v>201212</v>
-      </c>
-      <c r="B133">
-        <v>358.9934692382812</v>
       </c>
       <c r="C133">
         <v>408.4349975585938</v>
@@ -3459,10 +3459,10 @@
     </row>
     <row r="134" spans="1:7">
       <c r="A134">
+        <v>371.5023193359375</v>
+      </c>
+      <c r="B134">
         <v>201301</v>
-      </c>
-      <c r="B134">
-        <v>371.5023193359375</v>
       </c>
       <c r="C134">
         <v>358.9934692382812</v>
@@ -3482,10 +3482,10 @@
     </row>
     <row r="135" spans="1:7">
       <c r="A135">
+        <v>265.6839294433594</v>
+      </c>
+      <c r="B135">
         <v>201302</v>
-      </c>
-      <c r="B135">
-        <v>265.6839294433594</v>
       </c>
       <c r="C135">
         <v>371.5023193359375</v>
@@ -3505,10 +3505,10 @@
     </row>
     <row r="136" spans="1:7">
       <c r="A136">
+        <v>274.7190246582031</v>
+      </c>
+      <c r="B136">
         <v>201303</v>
-      </c>
-      <c r="B136">
-        <v>274.7190246582031</v>
       </c>
       <c r="C136">
         <v>265.6839294433594</v>
@@ -3528,10 +3528,10 @@
     </row>
     <row r="137" spans="1:7">
       <c r="A137">
+        <v>240.4774322509766</v>
+      </c>
+      <c r="B137">
         <v>201304</v>
-      </c>
-      <c r="B137">
-        <v>240.4774322509766</v>
       </c>
       <c r="C137">
         <v>274.7190246582031</v>
@@ -3551,10 +3551,10 @@
     </row>
     <row r="138" spans="1:7">
       <c r="A138">
+        <v>162.9687194824219</v>
+      </c>
+      <c r="B138">
         <v>201305</v>
-      </c>
-      <c r="B138">
-        <v>162.9687194824219</v>
       </c>
       <c r="C138">
         <v>240.4774322509766</v>
@@ -3574,10 +3574,10 @@
     </row>
     <row r="139" spans="1:7">
       <c r="A139">
+        <v>216.7747344970703</v>
+      </c>
+      <c r="B139">
         <v>201306</v>
-      </c>
-      <c r="B139">
-        <v>216.7747344970703</v>
       </c>
       <c r="C139">
         <v>162.9687194824219</v>
@@ -3597,10 +3597,10 @@
     </row>
     <row r="140" spans="1:7">
       <c r="A140">
+        <v>141.8206787109375</v>
+      </c>
+      <c r="B140">
         <v>201307</v>
-      </c>
-      <c r="B140">
-        <v>141.8206787109375</v>
       </c>
       <c r="C140">
         <v>216.7747344970703</v>
@@ -3620,10 +3620,10 @@
     </row>
     <row r="141" spans="1:7">
       <c r="A141">
+        <v>217.5097808837891</v>
+      </c>
+      <c r="B141">
         <v>201308</v>
-      </c>
-      <c r="B141">
-        <v>217.5097808837891</v>
       </c>
       <c r="C141">
         <v>141.8206787109375</v>
@@ -3643,10 +3643,10 @@
     </row>
     <row r="142" spans="1:7">
       <c r="A142">
+        <v>181.1646881103516</v>
+      </c>
+      <c r="B142">
         <v>201309</v>
-      </c>
-      <c r="B142">
-        <v>181.1646881103516</v>
       </c>
       <c r="C142">
         <v>217.5097808837891</v>
@@ -3666,10 +3666,10 @@
     </row>
     <row r="143" spans="1:7">
       <c r="A143">
+        <v>229.4941558837891</v>
+      </c>
+      <c r="B143">
         <v>201310</v>
-      </c>
-      <c r="B143">
-        <v>229.4941558837891</v>
       </c>
       <c r="C143">
         <v>181.1646881103516</v>
@@ -3689,10 +3689,10 @@
     </row>
     <row r="144" spans="1:7">
       <c r="A144">
+        <v>176.4741363525391</v>
+      </c>
+      <c r="B144">
         <v>201311</v>
-      </c>
-      <c r="B144">
-        <v>176.4741363525391</v>
       </c>
       <c r="C144">
         <v>229.4941558837891</v>
@@ -3712,10 +3712,10 @@
     </row>
     <row r="145" spans="1:7">
       <c r="A145">
+        <v>190.2335052490234</v>
+      </c>
+      <c r="B145">
         <v>201312</v>
-      </c>
-      <c r="B145">
-        <v>190.2335052490234</v>
       </c>
       <c r="C145">
         <v>176.4741363525391</v>
@@ -3735,10 +3735,10 @@
     </row>
     <row r="146" spans="1:7">
       <c r="A146">
+        <v>206.4477844238281</v>
+      </c>
+      <c r="B146">
         <v>201401</v>
-      </c>
-      <c r="B146">
-        <v>206.4477844238281</v>
       </c>
       <c r="C146">
         <v>190.2335052490234</v>
@@ -3758,10 +3758,10 @@
     </row>
     <row r="147" spans="1:7">
       <c r="A147">
+        <v>181.9648284912109</v>
+      </c>
+      <c r="B147">
         <v>201402</v>
-      </c>
-      <c r="B147">
-        <v>181.9648284912109</v>
       </c>
       <c r="C147">
         <v>206.4477844238281</v>
@@ -3781,10 +3781,10 @@
     </row>
     <row r="148" spans="1:7">
       <c r="A148">
+        <v>217.1248931884766</v>
+      </c>
+      <c r="B148">
         <v>201403</v>
-      </c>
-      <c r="B148">
-        <v>217.1248931884766</v>
       </c>
       <c r="C148">
         <v>181.9648284912109</v>
@@ -3804,10 +3804,10 @@
     </row>
     <row r="149" spans="1:7">
       <c r="A149">
+        <v>114.7957458496094</v>
+      </c>
+      <c r="B149">
         <v>201404</v>
-      </c>
-      <c r="B149">
-        <v>114.7957458496094</v>
       </c>
       <c r="C149">
         <v>217.1248931884766</v>
@@ -3827,10 +3827,10 @@
     </row>
     <row r="150" spans="1:7">
       <c r="A150">
+        <v>198.7409362792969</v>
+      </c>
+      <c r="B150">
         <v>201405</v>
-      </c>
-      <c r="B150">
-        <v>198.7409362792969</v>
       </c>
       <c r="C150">
         <v>114.7957458496094</v>
@@ -3850,10 +3850,10 @@
     </row>
     <row r="151" spans="1:7">
       <c r="A151">
+        <v>123.7755279541016</v>
+      </c>
+      <c r="B151">
         <v>201406</v>
-      </c>
-      <c r="B151">
-        <v>123.7755279541016</v>
       </c>
       <c r="C151">
         <v>198.7409362792969</v>
@@ -3873,10 +3873,10 @@
     </row>
     <row r="152" spans="1:7">
       <c r="A152">
+        <v>146.2275695800781</v>
+      </c>
+      <c r="B152">
         <v>201407</v>
-      </c>
-      <c r="B152">
-        <v>146.2275695800781</v>
       </c>
       <c r="C152">
         <v>123.7755279541016</v>
@@ -3896,10 +3896,10 @@
     </row>
     <row r="153" spans="1:7">
       <c r="A153">
+        <v>209.9140319824219</v>
+      </c>
+      <c r="B153">
         <v>201408</v>
-      </c>
-      <c r="B153">
-        <v>209.9140319824219</v>
       </c>
       <c r="C153">
         <v>146.2275695800781</v>
@@ -3919,10 +3919,10 @@
     </row>
     <row r="154" spans="1:7">
       <c r="A154">
+        <v>267.5660400390625</v>
+      </c>
+      <c r="B154">
         <v>201409</v>
-      </c>
-      <c r="B154">
-        <v>267.5660400390625</v>
       </c>
       <c r="C154">
         <v>209.9140319824219</v>
@@ -3942,10 +3942,10 @@
     </row>
     <row r="155" spans="1:7">
       <c r="A155">
+        <v>159.8326263427734</v>
+      </c>
+      <c r="B155">
         <v>201410</v>
-      </c>
-      <c r="B155">
-        <v>159.8326263427734</v>
       </c>
       <c r="C155">
         <v>267.5660400390625</v>
@@ -3965,10 +3965,10 @@
     </row>
     <row r="156" spans="1:7">
       <c r="A156">
+        <v>142.2918548583984</v>
+      </c>
+      <c r="B156">
         <v>201411</v>
-      </c>
-      <c r="B156">
-        <v>142.2918548583984</v>
       </c>
       <c r="C156">
         <v>159.8326263427734</v>
@@ -3988,10 +3988,10 @@
     </row>
     <row r="157" spans="1:7">
       <c r="A157">
+        <v>210.3607482910156</v>
+      </c>
+      <c r="B157">
         <v>201412</v>
-      </c>
-      <c r="B157">
-        <v>210.3607482910156</v>
       </c>
       <c r="C157">
         <v>142.2918548583984</v>
@@ -4011,10 +4011,10 @@
     </row>
     <row r="158" spans="1:7">
       <c r="A158">
+        <v>201.1910400390625</v>
+      </c>
+      <c r="B158">
         <v>201501</v>
-      </c>
-      <c r="B158">
-        <v>201.1910400390625</v>
       </c>
       <c r="C158">
         <v>210.3607482910156</v>
@@ -4034,10 +4034,10 @@
     </row>
     <row r="159" spans="1:7">
       <c r="A159">
+        <v>190.138916015625</v>
+      </c>
+      <c r="B159">
         <v>201502</v>
-      </c>
-      <c r="B159">
-        <v>190.138916015625</v>
       </c>
       <c r="C159">
         <v>201.1910400390625</v>
@@ -4057,10 +4057,10 @@
     </row>
     <row r="160" spans="1:7">
       <c r="A160">
+        <v>209.5493011474609</v>
+      </c>
+      <c r="B160">
         <v>201503</v>
-      </c>
-      <c r="B160">
-        <v>209.5493011474609</v>
       </c>
       <c r="C160">
         <v>190.138916015625</v>
@@ -4080,10 +4080,10 @@
     </row>
     <row r="161" spans="1:7">
       <c r="A161">
+        <v>255.4854736328125</v>
+      </c>
+      <c r="B161">
         <v>201504</v>
-      </c>
-      <c r="B161">
-        <v>255.4854736328125</v>
       </c>
       <c r="C161">
         <v>209.5493011474609</v>
@@ -4103,10 +4103,10 @@
     </row>
     <row r="162" spans="1:7">
       <c r="A162">
+        <v>272.46484375</v>
+      </c>
+      <c r="B162">
         <v>201505</v>
-      </c>
-      <c r="B162">
-        <v>272.46484375</v>
       </c>
       <c r="C162">
         <v>255.4854736328125</v>
@@ -4126,10 +4126,10 @@
     </row>
     <row r="163" spans="1:7">
       <c r="A163">
+        <v>199.7822570800781</v>
+      </c>
+      <c r="B163">
         <v>201506</v>
-      </c>
-      <c r="B163">
-        <v>199.7822570800781</v>
       </c>
       <c r="C163">
         <v>272.46484375</v>
@@ -4149,10 +4149,10 @@
     </row>
     <row r="164" spans="1:7">
       <c r="A164">
+        <v>179.1389312744141</v>
+      </c>
+      <c r="B164">
         <v>201507</v>
-      </c>
-      <c r="B164">
-        <v>179.1389312744141</v>
       </c>
       <c r="C164">
         <v>199.7822570800781</v>
@@ -4172,10 +4172,10 @@
     </row>
     <row r="165" spans="1:7">
       <c r="A165">
+        <v>137.5015258789062</v>
+      </c>
+      <c r="B165">
         <v>201508</v>
-      </c>
-      <c r="B165">
-        <v>137.5015258789062</v>
       </c>
       <c r="C165">
         <v>179.1389312744141</v>
@@ -4195,10 +4195,10 @@
     </row>
     <row r="166" spans="1:7">
       <c r="A166">
+        <v>279.8417358398438</v>
+      </c>
+      <c r="B166">
         <v>201509</v>
-      </c>
-      <c r="B166">
-        <v>279.8417358398438</v>
       </c>
       <c r="C166">
         <v>137.5015258789062</v>
@@ -4218,10 +4218,10 @@
     </row>
     <row r="167" spans="1:7">
       <c r="A167">
+        <v>155.6047058105469</v>
+      </c>
+      <c r="B167">
         <v>201510</v>
-      </c>
-      <c r="B167">
-        <v>155.6047058105469</v>
       </c>
       <c r="C167">
         <v>279.8417358398438</v>
@@ -4241,10 +4241,10 @@
     </row>
     <row r="168" spans="1:7">
       <c r="A168">
+        <v>208.3819427490234</v>
+      </c>
+      <c r="B168">
         <v>201511</v>
-      </c>
-      <c r="B168">
-        <v>208.3819427490234</v>
       </c>
       <c r="C168">
         <v>155.6047058105469</v>
@@ -4264,10 +4264,10 @@
     </row>
     <row r="169" spans="1:7">
       <c r="A169">
+        <v>164.4255523681641</v>
+      </c>
+      <c r="B169">
         <v>201512</v>
-      </c>
-      <c r="B169">
-        <v>164.4255523681641</v>
       </c>
       <c r="C169">
         <v>208.3819427490234</v>
@@ -4287,10 +4287,10 @@
     </row>
     <row r="170" spans="1:7">
       <c r="A170">
+        <v>249.4154357910156</v>
+      </c>
+      <c r="B170">
         <v>201601</v>
-      </c>
-      <c r="B170">
-        <v>249.4154357910156</v>
       </c>
       <c r="C170">
         <v>164.4255523681641</v>
@@ -4310,10 +4310,10 @@
     </row>
     <row r="171" spans="1:7">
       <c r="A171">
+        <v>312.599609375</v>
+      </c>
+      <c r="B171">
         <v>201602</v>
-      </c>
-      <c r="B171">
-        <v>312.599609375</v>
       </c>
       <c r="C171">
         <v>249.4154357910156</v>
@@ -4333,10 +4333,10 @@
     </row>
     <row r="172" spans="1:7">
       <c r="A172">
+        <v>479.3259887695312</v>
+      </c>
+      <c r="B172">
         <v>201603</v>
-      </c>
-      <c r="B172">
-        <v>479.3259887695312</v>
       </c>
       <c r="C172">
         <v>312.599609375</v>
@@ -4356,10 +4356,10 @@
     </row>
     <row r="173" spans="1:7">
       <c r="A173">
+        <v>434.6092224121094</v>
+      </c>
+      <c r="B173">
         <v>201604</v>
-      </c>
-      <c r="B173">
-        <v>434.6092224121094</v>
       </c>
       <c r="C173">
         <v>479.3259887695312</v>
@@ -4379,10 +4379,10 @@
     </row>
     <row r="174" spans="1:7">
       <c r="A174">
+        <v>428.5093078613281</v>
+      </c>
+      <c r="B174">
         <v>201605</v>
-      </c>
-      <c r="B174">
-        <v>428.5093078613281</v>
       </c>
       <c r="C174">
         <v>434.6092224121094</v>
@@ -4402,10 +4402,10 @@
     </row>
     <row r="175" spans="1:7">
       <c r="A175">
+        <v>799.9341430664062</v>
+      </c>
+      <c r="B175">
         <v>201606</v>
-      </c>
-      <c r="B175">
-        <v>799.9341430664062</v>
       </c>
       <c r="C175">
         <v>428.5093078613281</v>
@@ -4425,10 +4425,10 @@
     </row>
     <row r="176" spans="1:7">
       <c r="A176">
+        <v>1141.795532226562</v>
+      </c>
+      <c r="B176">
         <v>201607</v>
-      </c>
-      <c r="B176">
-        <v>1141.795532226562</v>
       </c>
       <c r="C176">
         <v>799.9341430664062</v>
@@ -4448,10 +4448,10 @@
     </row>
     <row r="177" spans="1:7">
       <c r="A177">
+        <v>458.6845397949219</v>
+      </c>
+      <c r="B177">
         <v>201608</v>
-      </c>
-      <c r="B177">
-        <v>458.6845397949219</v>
       </c>
       <c r="C177">
         <v>1141.795532226562</v>
@@ -4471,10 +4471,10 @@
     </row>
     <row r="178" spans="1:7">
       <c r="A178">
+        <v>378.9745178222656</v>
+      </c>
+      <c r="B178">
         <v>201609</v>
-      </c>
-      <c r="B178">
-        <v>378.9745178222656</v>
       </c>
       <c r="C178">
         <v>458.6845397949219</v>
@@ -4494,10 +4494,10 @@
     </row>
     <row r="179" spans="1:7">
       <c r="A179">
+        <v>545.1150512695312</v>
+      </c>
+      <c r="B179">
         <v>201610</v>
-      </c>
-      <c r="B179">
-        <v>545.1150512695312</v>
       </c>
       <c r="C179">
         <v>378.9745178222656</v>
@@ -4517,10 +4517,10 @@
     </row>
     <row r="180" spans="1:7">
       <c r="A180">
+        <v>816.2022094726562</v>
+      </c>
+      <c r="B180">
         <v>201611</v>
-      </c>
-      <c r="B180">
-        <v>816.2022094726562</v>
       </c>
       <c r="C180">
         <v>545.1150512695312</v>
@@ -4540,10 +4540,10 @@
     </row>
     <row r="181" spans="1:7">
       <c r="A181">
+        <v>468.021240234375</v>
+      </c>
+      <c r="B181">
         <v>201612</v>
-      </c>
-      <c r="B181">
-        <v>468.021240234375</v>
       </c>
       <c r="C181">
         <v>816.2022094726562</v>
@@ -4563,10 +4563,10 @@
     </row>
     <row r="182" spans="1:7">
       <c r="A182">
+        <v>539.224609375</v>
+      </c>
+      <c r="B182">
         <v>201701</v>
-      </c>
-      <c r="B182">
-        <v>539.224609375</v>
       </c>
       <c r="C182">
         <v>468.021240234375</v>
@@ -4586,10 +4586,10 @@
     </row>
     <row r="183" spans="1:7">
       <c r="A183">
+        <v>445.9740600585938</v>
+      </c>
+      <c r="B183">
         <v>201702</v>
-      </c>
-      <c r="B183">
-        <v>445.9740600585938</v>
       </c>
       <c r="C183">
         <v>539.224609375</v>
@@ -4609,10 +4609,10 @@
     </row>
     <row r="184" spans="1:7">
       <c r="A184">
+        <v>418.6566162109375</v>
+      </c>
+      <c r="B184">
         <v>201703</v>
-      </c>
-      <c r="B184">
-        <v>418.6566162109375</v>
       </c>
       <c r="C184">
         <v>445.9740600585938</v>
@@ -4632,10 +4632,10 @@
     </row>
     <row r="185" spans="1:7">
       <c r="A185">
+        <v>335.475830078125</v>
+      </c>
+      <c r="B185">
         <v>201704</v>
-      </c>
-      <c r="B185">
-        <v>335.475830078125</v>
       </c>
       <c r="C185">
         <v>418.6566162109375</v>
@@ -4655,10 +4655,10 @@
     </row>
     <row r="186" spans="1:7">
       <c r="A186">
+        <v>470.2643127441406</v>
+      </c>
+      <c r="B186">
         <v>201705</v>
-      </c>
-      <c r="B186">
-        <v>470.2643127441406</v>
       </c>
       <c r="C186">
         <v>335.475830078125</v>
@@ -4678,10 +4678,10 @@
     </row>
     <row r="187" spans="1:7">
       <c r="A187">
+        <v>709.7437133789062</v>
+      </c>
+      <c r="B187">
         <v>201706</v>
-      </c>
-      <c r="B187">
-        <v>709.7437133789062</v>
       </c>
       <c r="C187">
         <v>470.2643127441406</v>
@@ -4701,10 +4701,10 @@
     </row>
     <row r="188" spans="1:7">
       <c r="A188">
+        <v>466.4747314453125</v>
+      </c>
+      <c r="B188">
         <v>201707</v>
-      </c>
-      <c r="B188">
-        <v>466.4747314453125</v>
       </c>
       <c r="C188">
         <v>709.7437133789062</v>
@@ -4724,10 +4724,10 @@
     </row>
     <row r="189" spans="1:7">
       <c r="A189">
+        <v>441.479248046875</v>
+      </c>
+      <c r="B189">
         <v>201708</v>
-      </c>
-      <c r="B189">
-        <v>441.479248046875</v>
       </c>
       <c r="C189">
         <v>466.4747314453125</v>
@@ -4747,10 +4747,10 @@
     </row>
     <row r="190" spans="1:7">
       <c r="A190">
+        <v>457.8815612792969</v>
+      </c>
+      <c r="B190">
         <v>201709</v>
-      </c>
-      <c r="B190">
-        <v>457.8815612792969</v>
       </c>
       <c r="C190">
         <v>441.479248046875</v>
@@ -4770,10 +4770,10 @@
     </row>
     <row r="191" spans="1:7">
       <c r="A191">
+        <v>485.8477783203125</v>
+      </c>
+      <c r="B191">
         <v>201710</v>
-      </c>
-      <c r="B191">
-        <v>485.8477783203125</v>
       </c>
       <c r="C191">
         <v>457.8815612792969</v>
@@ -4793,10 +4793,10 @@
     </row>
     <row r="192" spans="1:7">
       <c r="A192">
+        <v>520.0068359375</v>
+      </c>
+      <c r="B192">
         <v>201711</v>
-      </c>
-      <c r="B192">
-        <v>520.0068359375</v>
       </c>
       <c r="C192">
         <v>485.8477783203125</v>
@@ -4816,10 +4816,10 @@
     </row>
     <row r="193" spans="1:7">
       <c r="A193">
+        <v>419.09912109375</v>
+      </c>
+      <c r="B193">
         <v>201712</v>
-      </c>
-      <c r="B193">
-        <v>419.09912109375</v>
       </c>
       <c r="C193">
         <v>520.0068359375</v>
@@ -4839,10 +4839,10 @@
     </row>
     <row r="194" spans="1:7">
       <c r="A194">
+        <v>395.8885803222656</v>
+      </c>
+      <c r="B194">
         <v>201801</v>
-      </c>
-      <c r="B194">
-        <v>395.8885803222656</v>
       </c>
       <c r="C194">
         <v>419.09912109375</v>
@@ -4862,10 +4862,10 @@
     </row>
     <row r="195" spans="1:7">
       <c r="A195">
+        <v>205.9289245605469</v>
+      </c>
+      <c r="B195">
         <v>201802</v>
-      </c>
-      <c r="B195">
-        <v>205.9289245605469</v>
       </c>
       <c r="C195">
         <v>395.8885803222656</v>
@@ -4885,10 +4885,10 @@
     </row>
     <row r="196" spans="1:7">
       <c r="A196">
+        <v>388.9264526367188</v>
+      </c>
+      <c r="B196">
         <v>201803</v>
-      </c>
-      <c r="B196">
-        <v>388.9264526367188</v>
       </c>
       <c r="C196">
         <v>205.9289245605469</v>
@@ -4908,10 +4908,10 @@
     </row>
     <row r="197" spans="1:7">
       <c r="A197">
+        <v>289.2259521484375</v>
+      </c>
+      <c r="B197">
         <v>201804</v>
-      </c>
-      <c r="B197">
-        <v>289.2259521484375</v>
       </c>
       <c r="C197">
         <v>388.9264526367188</v>
@@ -4931,10 +4931,10 @@
     </row>
     <row r="198" spans="1:7">
       <c r="A198">
+        <v>355.0552368164062</v>
+      </c>
+      <c r="B198">
         <v>201805</v>
-      </c>
-      <c r="B198">
-        <v>355.0552368164062</v>
       </c>
       <c r="C198">
         <v>289.2259521484375</v>
@@ -4954,10 +4954,10 @@
     </row>
     <row r="199" spans="1:7">
       <c r="A199">
+        <v>371.7205505371094</v>
+      </c>
+      <c r="B199">
         <v>201806</v>
-      </c>
-      <c r="B199">
-        <v>371.7205505371094</v>
       </c>
       <c r="C199">
         <v>355.0552368164062</v>
@@ -4977,10 +4977,10 @@
     </row>
     <row r="200" spans="1:7">
       <c r="A200">
+        <v>217.9838714599609</v>
+      </c>
+      <c r="B200">
         <v>201807</v>
-      </c>
-      <c r="B200">
-        <v>217.9838714599609</v>
       </c>
       <c r="C200">
         <v>371.7205505371094</v>
